--- a/10-test summary.xlsx
+++ b/10-test summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\report\OpenCart-Manual_Testing project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFD6B32-AEA3-4DF0-94D2-5C0E6585775D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F295A1-161A-472C-B106-5203A6F2E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E10A8413-0C1E-484E-BB77-B57F7A993511}"/>
   </bookViews>
@@ -284,17 +284,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +616,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,24 +630,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -662,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="14">
-        <v>324</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="13">
-        <v>324</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="12">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
